--- a/Excel data/Research excel.xlsx
+++ b/Excel data/Research excel.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Windows.Documents\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Pans" sheetId="2" r:id="rId2"/>
+    <sheet name="Fuel" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -82,12 +78,60 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical dimensions </t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3 </t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>Burn#</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Moisture Content</t>
+  </si>
+  <si>
+    <t>L[in]</t>
+  </si>
+  <si>
+    <t>D1 [mm]</t>
+  </si>
+  <si>
+    <t>M1[%]</t>
+  </si>
+  <si>
+    <t>#of pieces</t>
+  </si>
+  <si>
+    <t>total weight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,10 +156,59 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -125,13 +218,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -235,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -447,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -726,4 +837,394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="J9:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>